--- a/data/predictions/abortion/leveled/democrat.xlsx
+++ b/data/predictions/abortion/leveled/democrat.xlsx
@@ -859,10 +859,10 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.595136169660946</v>
+        <v>0.5453171343319065</v>
       </c>
       <c r="D34">
-        <v>0.3841208281304125</v>
+        <v>0.4095643451482061</v>
       </c>
       <c r="F34">
         <v>0.05917423597415764</v>
@@ -873,10 +873,10 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.6031365007288658</v>
+        <v>0.5842766552293743</v>
       </c>
       <c r="D35">
-        <v>0.3876117167190055</v>
+        <v>0.357397820104696</v>
       </c>
       <c r="F35">
         <v>0.05890097802088788</v>
@@ -887,10 +887,10 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.6210609623071696</v>
+        <v>0.5881576218054128</v>
       </c>
       <c r="D36">
-        <v>0.3833714994384472</v>
+        <v>0.3605934001356177</v>
       </c>
       <c r="F36">
         <v>0.05903543240017557</v>
@@ -901,10 +901,10 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.6234959240084166</v>
+        <v>0.532984314068814</v>
       </c>
       <c r="D37">
-        <v>0.3771350543441478</v>
+        <v>0.4146033180478476</v>
       </c>
       <c r="F37">
         <v>0.05914439736174096</v>
@@ -915,10 +915,10 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.6290191406834148</v>
+        <v>0.5533409105719186</v>
       </c>
       <c r="D38">
-        <v>0.3703831686968668</v>
+        <v>0.3768685112600697</v>
       </c>
       <c r="F38">
         <v>0.05925495587435678</v>
@@ -929,10 +929,10 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.6456220419022822</v>
+        <v>0.5720265459912293</v>
       </c>
       <c r="D39">
-        <v>0.3634981925466738</v>
+        <v>0.3602830112129853</v>
       </c>
       <c r="F39">
         <v>0.05936541476112089</v>
